--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\授業ファイル\3年\データ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314AB56E-75CE-4721-8923-5A16794BF0CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB4155A-0431-4166-9B71-9EBF48B099F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -129,6 +129,46 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値テスト</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３回30点以下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テスト</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２回30点以下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４回30点以下</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テストにならない</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テストになること</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -531,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
   <dimension ref="A2:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -657,13 +697,17 @@
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -674,7 +718,9 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -690,7 +736,9 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -701,7 +749,9 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -717,7 +767,9 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -728,7 +780,9 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
